--- a/11-CollaborationList/Oxford.xlsx
+++ b/11-CollaborationList/Oxford.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9A63FF-5CEB-A54A-8975-4C2485AB3F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01521F7-E90A-874E-A651-C4DCF78031EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="1480" windowWidth="27640" windowHeight="16940" xr2:uid="{759BFB50-CDD5-5B45-B974-3B160EC6609B}"/>
+    <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{759BFB50-CDD5-5B45-B974-3B160EC6609B}"/>
   </bookViews>
   <sheets>
     <sheet name="Oxford" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Title</t>
   </si>
@@ -82,9 +82,6 @@
     <t>A.</t>
   </si>
   <si>
-    <t>amato.giaccia@oncology.ox.ac.uk</t>
-  </si>
-  <si>
     <t>A. Giacca</t>
   </si>
   <si>
@@ -103,24 +100,6 @@
     <t>Spoke</t>
   </si>
   <si>
-    <t>Ester</t>
-  </si>
-  <si>
-    <t>Hammond</t>
-  </si>
-  <si>
-    <t>E.M.</t>
-  </si>
-  <si>
-    <t>ester.hammond@oncology.ox.ac.uk</t>
-  </si>
-  <si>
-    <t>Ester M. Hammond</t>
-  </si>
-  <si>
-    <t>0000-0002-2335-3146</t>
-  </si>
-  <si>
     <t xml:space="preserve">Philip </t>
   </si>
   <si>
@@ -157,13 +136,16 @@
     <t>M.</t>
   </si>
   <si>
-    <t>Manjit.Dosanjh@cern.ch  and  manjit.dosanjh@physics.ox.ac.uk</t>
-  </si>
-  <si>
     <t>M. Dosanjh</t>
   </si>
   <si>
     <t>The John Adams Institute for Accelerator Science,, University of Oxford, Keble Rd, Oxford, OX1 3RH.</t>
+  </si>
+  <si>
+    <t>amato.giaccia@oncology.ox.ac.uk; giaccia@stanford.edu</t>
+  </si>
+  <si>
+    <t>Manjit.Dosanjh@cern.ch;  manjit.dosanjh@physics.ox.ac.uk</t>
   </si>
 </sst>
 </file>
@@ -708,8 +690,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2966E3D-819E-7B47-A3B8-F10F98947DB8}" name="Table1" displayName="Table1" ref="A1:P5" totalsRowShown="0">
-  <autoFilter ref="A1:P5" xr:uid="{F2966E3D-819E-7B47-A3B8-F10F98947DB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2966E3D-819E-7B47-A3B8-F10F98947DB8}" name="Table1" displayName="Table1" ref="A1:P4" totalsRowShown="0">
+  <autoFilter ref="A1:P4" xr:uid="{F2966E3D-819E-7B47-A3B8-F10F98947DB8}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{F9932CBD-3E63-E141-AFAA-8BEF6C01578C}" name="Title"/>
     <tableColumn id="2" xr3:uid="{E6C07710-30E2-F940-A3F8-1A093BC9CF16}" name="Name"/>
@@ -1049,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D785E4-B585-654B-8BA4-D5D5AF554FA4}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,28 +1121,28 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1168,31 +1150,37 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1200,72 +1188,34 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
         <v>39</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/Oxford.xlsx
+++ b/11-CollaborationList/Oxford.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01521F7-E90A-874E-A651-C4DCF78031EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA3A049-C6D8-354A-A58B-AB926C0A92E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{759BFB50-CDD5-5B45-B974-3B160EC6609B}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>A.</t>
   </si>
   <si>
-    <t>A. Giacca</t>
-  </si>
-  <si>
     <t>Oxford-Oncology</t>
   </si>
   <si>
@@ -139,13 +136,16 @@
     <t>M. Dosanjh</t>
   </si>
   <si>
-    <t>The John Adams Institute for Accelerator Science,, University of Oxford, Keble Rd, Oxford, OX1 3RH.</t>
-  </si>
-  <si>
     <t>amato.giaccia@oncology.ox.ac.uk; giaccia@stanford.edu</t>
   </si>
   <si>
     <t>Manjit.Dosanjh@cern.ch;  manjit.dosanjh@physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>A. Giaccia</t>
+  </si>
+  <si>
+    <t>The John Adams Institute for Accelerator Science, University of Oxford, Keble Rd, Oxford, OX1 3RH</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,28 +1121,28 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1150,37 +1150,37 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1188,34 +1188,34 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
       <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/Oxford.xlsx
+++ b/11-CollaborationList/Oxford.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA3A049-C6D8-354A-A58B-AB926C0A92E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A8FDF2-9001-A340-AB06-E05E07540240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12120" windowWidth="57600" windowHeight="16220" xr2:uid="{759BFB50-CDD5-5B45-B974-3B160EC6609B}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Philip.burrows@physics.ox.ac.uk</t>
   </si>
   <si>
-    <t>Philip N. Burrows</t>
-  </si>
-  <si>
     <t>Oxford-Physics</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>The John Adams Institute for Accelerator Science, University of Oxford, Keble Rd, Oxford, OX1 3RH</t>
+  </si>
+  <si>
+    <t>P.N. Burrows</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,10 +1121,10 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1162,25 +1162,25 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1188,34 +1188,34 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
